--- a/Test Data/TC_64_Verify_Repeaters_Gallery_Items.xlsx
+++ b/Test Data/TC_64_Verify_Repeaters_Gallery_Items.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work_test\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Times Down Button is Clicked</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -243,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -272,6 +281,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +740,7 @@
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -739,8 +750,11 @@
       <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
@@ -750,8 +764,11 @@
       <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7" t="s">
         <v>20</v>
@@ -759,8 +776,11 @@
       <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
         <v>21</v>
@@ -768,8 +788,11 @@
       <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>22</v>
@@ -777,8 +800,11 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>23</v>
@@ -786,8 +812,11 @@
       <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>24</v>
@@ -795,8 +824,11 @@
       <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>25</v>
@@ -804,8 +836,11 @@
       <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>26</v>
@@ -813,8 +848,11 @@
       <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>27</v>
@@ -822,8 +860,11 @@
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>31</v>
@@ -831,14 +872,20 @@
       <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>29</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_64_Verify_Repeaters_Gallery_Items.xlsx
+++ b/Test Data/TC_64_Verify_Repeaters_Gallery_Items.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Color Codes</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>PR1ASCH</t>
+  </si>
+  <si>
+    <t>PR1DSCH</t>
   </si>
 </sst>
 </file>
@@ -275,14 +281,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -587,13 +593,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -607,10 +613,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -727,10 +733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +770,7 @@
       <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -776,7 +782,7 @@
       <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -788,7 +794,7 @@
       <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -800,7 +806,7 @@
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -812,7 +818,7 @@
       <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -824,7 +830,7 @@
       <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -836,7 +842,7 @@
       <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -848,43 +854,67 @@
       <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>38</v>
       </c>
     </row>

--- a/Test Data/TC_64_Verify_Repeaters_Gallery_Items.xlsx
+++ b/Test Data/TC_64_Verify_Repeaters_Gallery_Items.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -145,12 +145,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>PR1ASCH</t>
-  </si>
-  <si>
-    <t>PR1DSCH</t>
   </si>
 </sst>
 </file>
@@ -733,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A12" activeCellId="1" sqref="A10:XFD10 A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,7 +855,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>29</v>
@@ -873,7 +867,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>29</v>
@@ -885,36 +879,12 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>38</v>
       </c>
     </row>
